--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1449080.726140787</v>
+        <v>-1451978.559127239</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14815385.93902983</v>
+        <v>14815385.93902982</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>240.1175848495429</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>17.1535709749197</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>123.4514883688806</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>304.613778028469</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>48.26252137233844</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>337.040854966459</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>236.0248742715482</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>207.5912001051811</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1967972861383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2152140927927</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>69.62067330016092</v>
+        <v>102.1854574632513</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1585,7 +1585,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>353.1459972433406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>282.026047627202</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>89.53408223745106</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>149.3506265058287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128551</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>179.8780801519731</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>52.57516893523083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>36.43062059490515</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>178.8757728051408</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1562.968440970219</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1194.005924029808</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>835.7402254230574</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>449.9519728248131</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2461.187584621679</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2461.187584621679</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2108.418929351565</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>2108.418929351565</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>2108.418929351565</v>
+        <v>1949.568281034341</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>603.4305111065548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.578376364604</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C5" t="n">
-        <v>867.6158594241924</v>
+        <v>726.8448660535598</v>
       </c>
       <c r="D5" t="n">
-        <v>509.3501608174419</v>
+        <v>368.5791674468093</v>
       </c>
       <c r="E5" t="n">
-        <v>123.5619082191977</v>
+        <v>368.5791674468093</v>
       </c>
       <c r="F5" t="n">
-        <v>116.6164074699942</v>
+        <v>361.6336666976059</v>
       </c>
       <c r="G5" t="n">
-        <v>102.6930034085851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>102.6930034085851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428726</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.089911220684</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C8" t="n">
-        <v>1507.089911220684</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D8" t="n">
-        <v>1507.089911220684</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.30165862244</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="F8" t="n">
-        <v>710.3157538328323</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>292.3519457310192</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,25 +5042,25 @@
         <v>373.3125385470848</v>
       </c>
       <c r="K11" t="n">
-        <v>892.189873607444</v>
+        <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.502413949178</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,16 +5075,16 @@
         <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>94.85569562249445</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>94.85569562249445</v>
       </c>
       <c r="K12" t="n">
-        <v>571.9733873631765</v>
+        <v>425.3644381858532</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.705720206928</v>
+        <v>916.0967710296045</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.724074459055</v>
+        <v>916.0967710296045</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.724074459055</v>
+        <v>1321.433197946704</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.635877180809</v>
+        <v>1868.309672946898</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.219395606885</v>
+        <v>2287.893191372974</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1000.77805335242</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="C13" t="n">
-        <v>930.454140928015</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3375015156793</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2429.380814232059</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.380814232059</v>
+        <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.380814232059</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>2209.702031946441</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1920.625818261168</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1920.625818261168</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1631.208648224207</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X13" t="n">
-        <v>1403.21909732619</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1182.42651818266</v>
+        <v>676.7124946742043</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1947.7144217092</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.001293180573</v>
+        <v>1589.44872310245</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.213040582329</v>
+        <v>1203.660470504205</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2271357927214</v>
+        <v>792.6745657145977</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2440287091278</v>
+        <v>378.6914586310042</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,22 +5282,22 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L14" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M14" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N14" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O14" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P14" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q14" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.502413949178</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>94.85569562249445</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4646447998178</v>
+        <v>94.85569562249445</v>
       </c>
       <c r="K15" t="n">
-        <v>571.9733873631765</v>
+        <v>425.3644381858532</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.705720206928</v>
+        <v>526.9023987213164</v>
       </c>
       <c r="M15" t="n">
-        <v>1281.539913781472</v>
+        <v>1118.920752973444</v>
       </c>
       <c r="N15" t="n">
-        <v>1903.635877180809</v>
+        <v>1741.01671637278</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.635877180809</v>
+        <v>2287.893191372974</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.219395606885</v>
+        <v>2287.893191372974</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="R15" t="n">
         <v>2553.780669592131</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.059489618165</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="C16" t="n">
-        <v>613.1233066902581</v>
+        <v>326.1278469160577</v>
       </c>
       <c r="D16" t="n">
-        <v>613.1233066902581</v>
+        <v>326.1278469160577</v>
       </c>
       <c r="E16" t="n">
-        <v>465.210213107865</v>
+        <v>326.1278469160577</v>
       </c>
       <c r="F16" t="n">
-        <v>318.3202656099546</v>
+        <v>235.6893800095415</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3202656099546</v>
+        <v>235.6893800095415</v>
       </c>
       <c r="H16" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2361.52146919056</v>
       </c>
       <c r="S16" t="n">
-        <v>2361.52146919056</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T16" t="n">
-        <v>2141.842686904942</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U16" t="n">
-        <v>1852.766473219669</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.907254526913</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.490084489952</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.500533591935</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.7079544484047</v>
+        <v>676.7124946742043</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192557</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075782</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332383</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014773</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355929</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694696</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852243</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756261</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468457</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962603</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589154</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190826</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190826</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532805</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253736</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253736</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2265.268053123717</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.091168225068</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.10161732705</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3090381835202</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1924.354849262801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6695,22 +6695,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,31 +7075,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>49.74439522492668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>49.74439522492656</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>49.74439522492656</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.298872120969463e-11</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-4.810341758528545e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91.74848065471885</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>83.89897061026353</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23255,67 +23255,67 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.537044377342227</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.62614779846692</v>
+        <v>65.06136363537658</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.53704437734234</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.88696578548019</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>102.7870168179993</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012189</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>37.52737017531524</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>233.6093054540133</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>144.5956654067394</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.654232434377241e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1108254.770964086</v>
+        <v>1108254.770964085</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1275295.536888714</v>
+        <v>1275295.536888713</v>
       </c>
     </row>
     <row r="6">
@@ -26326,10 +26326,10 @@
         <v>141148.1099675715</v>
       </c>
       <c r="G2" t="n">
+        <v>141250.654945751</v>
+      </c>
+      <c r="H2" t="n">
         <v>141250.6549457511</v>
-      </c>
-      <c r="H2" t="n">
-        <v>141250.6549457512</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26338,7 +26338,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7723.906990788462</v>
+        <v>7723.906990790407</v>
       </c>
       <c r="H3" t="n">
-        <v>2.263320993733942e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363185</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111593.0946006682</v>
+        <v>111593.0946006681</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,16 +26424,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670618</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670405</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26442,22 +26442,22 @@
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="P4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668170.1180767362</v>
+        <v>-668562.0091613699</v>
       </c>
       <c r="C6" t="n">
         <v>-140241.2742648913</v>
@@ -26528,40 +26528,40 @@
         <v>-140241.2742648913</v>
       </c>
       <c r="E6" t="n">
-        <v>-901909.19721622</v>
+        <v>-901945.4000699153</v>
       </c>
       <c r="F6" t="n">
-        <v>34482.21230237743</v>
+        <v>34446.00944868212</v>
       </c>
       <c r="G6" t="n">
-        <v>27336.62552938498</v>
+        <v>27301.88760394738</v>
       </c>
       <c r="H6" t="n">
-        <v>35060.53252017134</v>
+        <v>35025.79459473782</v>
       </c>
       <c r="I6" t="n">
-        <v>35060.53252017354</v>
+        <v>35025.79459473785</v>
       </c>
       <c r="J6" t="n">
-        <v>-141362.6866724194</v>
+        <v>-141397.4245978551</v>
       </c>
       <c r="K6" t="n">
-        <v>8032.024013938586</v>
+        <v>8032.024013938484</v>
       </c>
       <c r="L6" t="n">
-        <v>27459.74200757036</v>
+        <v>27459.74200757034</v>
       </c>
       <c r="M6" t="n">
-        <v>-96748.76870048814</v>
+        <v>-96748.76870048816</v>
       </c>
       <c r="N6" t="n">
         <v>27459.74200757033</v>
       </c>
       <c r="O6" t="n">
-        <v>27459.74200757034</v>
+        <v>27459.74200757037</v>
       </c>
       <c r="P6" t="n">
-        <v>8032.024013938644</v>
+        <v>8032.02401393847</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203981</v>
       </c>
     </row>
     <row r="3">
@@ -26972,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625285647</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75.00998023744968</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>150.1716259231061</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>162.8303858730972</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>109.170391992326</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>103.6687948725228</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498797</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.98780970275067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>69.83519077525244</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>87.89789849280896</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>140.2683608148411</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>44.54644321864694</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31835,10 +31835,10 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>540.77244634303</v>
       </c>
       <c r="O12" t="n">
-        <v>394.0223077997508</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32072,34 +32072,34 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>241.1179762803421</v>
       </c>
       <c r="M15" t="n">
-        <v>363.178673896306</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348423</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713533</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663274</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817563</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162545</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175658</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159407</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460011</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236492</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669211</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043719</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292898</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651523</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078737</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659444</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521095</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.995851442075</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422577</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473061</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862107</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496694</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214688</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485284</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742428</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937732</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275951</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189899</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121566</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869261</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796258</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355172</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588146</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392038</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106781</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920051</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417309</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670476</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532758</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467219</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157699</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>502.5232631188757</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>524.1185202629891</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
         <v>625.777556066439</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>177.1017560095107</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>409.4307342596967</v>
       </c>
       <c r="O12" t="n">
-        <v>251.4260633553063</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
         <v>728.287436302058</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>177.1017560095107</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>102.5635965004679</v>
       </c>
       <c r="M15" t="n">
-        <v>221.0446399742877</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316858</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396411</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367757</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462672</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790293</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193497</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243144</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924716</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902528</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754083</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678987</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674319</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641924</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663361</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071385</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625068</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295305</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096344</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191307</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010444</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899068</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060447</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066244</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.402257299898</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937516</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>368.5488557045454</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37321,13 +37321,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37622,19 +37622,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
